--- a/Day 2/day 2 UserStories 7.xlsx
+++ b/Day 2/day 2 UserStories 7.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adithya\OneDrive\Desktop\Testing\Day 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41EA6A44-74D7-488B-AF11-4945BEA5D423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -43,9 +52,6 @@
     <t>Test Executed by:</t>
   </si>
   <si>
-    <t>Arunkrishna E S</t>
-  </si>
-  <si>
     <t>Test Execution date:</t>
   </si>
   <si>
@@ -174,35 +180,54 @@
     <t>It  should display the manage vehicles page and
 the delete button must be enabled</t>
   </si>
+  <si>
+    <t>Adithya S S</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Verdana"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Verdana"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -210,7 +235,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -226,31 +251,12 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -259,103 +265,128 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -545,29 +576,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.38"/>
-    <col customWidth="1" min="2" max="2" width="52.25"/>
-    <col customWidth="1" min="3" max="3" width="35.13"/>
-    <col customWidth="1" min="4" max="4" width="30.88"/>
-    <col customWidth="1" min="5" max="5" width="48.25"/>
-    <col customWidth="1" min="6" max="6" width="16.63"/>
+    <col min="1" max="1" width="27.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="52.21875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="48.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,195 +621,194 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>1.2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="11" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="15" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="C7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="E7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="79.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="B8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="15" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="15" t="s">
+      <c r="F9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="19" t="s">
+      <c r="B10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
 </worksheet>
 </file>